--- a/biology/Biologie cellulaire et moléculaire/Liste_de_biomolécules/Liste_de_biomolécules.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Liste_de_biomolécules/Liste_de_biomolécules.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_biomol%C3%A9cules</t>
+          <t>Liste_de_biomolécules</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sommaire :
 Haut – A
@@ -520,7 +532,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_biomol%C3%A9cules</t>
+          <t>Liste_de_biomolécules</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -538,7 +550,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Acide abscissique - Acide aminé - Acide arachidonique - Acide ascorbique - Acide aspartique - Acide citrique - Acide docosahexaénoïque - Acide eicosapentaénoïque - Acide fumarique - Acide gastrique - Acide glucuronique - Acide glycyrrhizique - Acide gras essentiel - Acide gras - Acide hyalobiuronique - Acide iduronique - Acide linoléique - Acide linolénique - Acide malique - Acide nucléique - Acide oléique - Acide palmitique - Acide phosphatidique - Acide phytique - Acide sialique - Acide stéarique - Acide uronique - Aconitine - Adrénaline - Agrétope - Alanine aminotransférase - Albumine - Alcaloïde - Alcool gras - Aldohexose - Aldose - Allose - Alpha-fœtoprotéine - Altrose - Amidon - Amylopectine - Amylose - Annexin II- Apoenzyme - Apolipoprotéine - Apoprotéine - Aquaporine - Arabinose - Arabitol - Arginine - Arginine-vasopressine - Arginine dihydrolase - Asparagine
 </t>
@@ -551,7 +565,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_de_biomol%C3%A9cules</t>
+          <t>Liste_de_biomolécules</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -569,7 +583,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Berbérine - Bêta-galactosidase - Brazzéine
 </t>
@@ -582,7 +598,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_de_biomol%C3%A9cules</t>
+          <t>Liste_de_biomolécules</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -600,7 +616,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cadhérine - Cancérogène - - Calreticuline - Capsaïcine - Carboxyhémoglobine - Carotène - Caroténoïde - Carraghénane - Caséine - Catalase - Catécholamine - Cellobiose - Cellulose - Céride - Cétohexose - Cétose - Chitosan - Chlorophylle - Cholestérol - Choline - Coenzyme - Colchicine - Collagène - Conservateur alimentaire - Corrine - Créatine kinase - Créatinine - Curdlan - Cyclo-oxygénase - Cystéine - Cystine - Cytokine - Cytokinine - Calreticuline
 </t>
@@ -613,7 +631,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_de_biomol%C3%A9cules</t>
+          <t>Liste_de_biomolécules</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,7 +649,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Décarboxylase - Déshydrogénase - Désoxyose - Désoxyribose - Désoxythymidine - Dextrine - Dibotermine alfa - Diholoside - Dihydroxyacétone
 </t>
@@ -644,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_de_biomol%C3%A9cules</t>
+          <t>Liste_de_biomolécules</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -662,7 +682,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ecdysone - Eicosanoïde - Endothéline - Enzyme de restriction - Enzyme - Éphédrine - Épitope - Ergine - Erlose - Érythrose - Érythrulose
 </t>
@@ -675,7 +697,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_de_biomol%C3%A9cules</t>
+          <t>Liste_de_biomolécules</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -693,7 +715,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Fgf - Fructane - Fructose - Fucosyllactose- Fucose - Fuculose
 </t>
@@ -706,7 +730,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_de_biomol%C3%A9cules</t>
+          <t>Liste_de_biomolécules</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -724,7 +748,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Galactane - Galactomannane - Galactose - Gastrine - Gentianose - Gentiobiose - Glucagon - Glucane - Glucide - Glucomannane - Glucose - Glycéraldéhyde - Glycéride - Glycérol - Glycine (acide aminé) - Glycogène phosphorylase - Glycogène - Glycoprotéine - Gonadotropin-releasing hormone - Graisse - Guanosine monophosphate - Gulose
 </t>
@@ -737,7 +763,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_de_biomol%C3%A9cules</t>
+          <t>Liste_de_biomolécules</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -755,7 +781,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Hémagglutinine - Hème - Heptose - Holoprotéine - Hormone - Hormone corticotrope - Hormone peptidique - Hormone sexuelle - Hormone trophique - HRGP - Hydrolase - Hypervitaminose
 </t>
@@ -768,7 +796,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_de_biomol%C3%A9cules</t>
+          <t>Liste_de_biomolécules</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -786,7 +814,9 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Ibogaïne - IDL (biologie) - Idose - Incrétine - Inhibiteur des monoamine oxydases - Inositol - Intégrine - Inuline - Inulobiose - Inulotriose - Isoforme - Isoleucine - Isomaltose - Isomaltulose
 </t>
@@ -799,7 +829,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_de_biomol%C3%A9cules</t>
+          <t>Liste_de_biomolécules</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -817,7 +847,9 @@
           <t>K</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Kaïnate - Kératine - Kinase - Kojibiose
 </t>
@@ -830,7 +862,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_de_biomol%C3%A9cules</t>
+          <t>Liste_de_biomolécules</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -848,7 +880,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Lactitol - Lactose - Lactulose - Laminaribiose - Leucrose - Lévothyroxine - Lipide - Lipoprotéine - Luciférase - Luciférine - Lysozyme - Lyxose
 </t>
@@ -861,7 +895,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_de_biomol%C3%A9cules</t>
+          <t>Liste_de_biomolécules</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -879,7 +913,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">Mabinline - Macromolécule - Maltodextrine - Maltose - Maltotriose - Mannane - Mannitol - Mannose - Mannotriose  - Mélatonine - Mélézitose - Mélibiose - Mescaline - Métalloprotéine - Méthionine - MSH - Monelline - Mucine - Myosine
 </t>
@@ -892,7 +928,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_de_biomol%C3%A9cules</t>
+          <t>Liste_de_biomolécules</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -910,7 +946,9 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">Neuroligine - Neurotoxine - Neurotransmetteur - Nicotine - Nigerose - Ninhydrine - Noscapine - Noyau porphine
 </t>
@@ -923,7 +961,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_de_biomol%C3%A9cules</t>
+          <t>Liste_de_biomolécules</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -941,7 +979,9 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">Octose - Ocytocine - Oligonucléotide - Oligoside - Oméga-3 - Oméga-6 - Opiacé- Osamine - Ose acide - Ose - Oside
 </t>
@@ -954,7 +994,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liste_de_biomol%C3%A9cules</t>
+          <t>Liste_de_biomolécules</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -972,7 +1012,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">Panose - PDI - Peptide - Peptidoglycane - Pentadine - Phényléthylamine - Phénylpropanolamine - Phéromone - Phloridzine - Phosphatidylcholine - Phosphodiestérase - Phosphoglycérolipide - Phospholipide - Pneumose - Polyisoprène - Polykétide - Polypeptide - Polysaccharide - POPi - POPj - Porphyrine - Prion (protéine) - Prolactine - Protéasome - Protéine - Protéine C réactive - Protéine de Rieske - Protéine fluorescente verte - Protéine G - Protéinoïde - Psicose - Psilocybine - Pullulane - Purine - Pyrimidine - Pyruvate
 </t>
@@ -985,7 +1027,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Liste_de_biomol%C3%A9cules</t>
+          <t>Liste_de_biomolécules</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1003,7 +1045,9 @@
           <t>Q</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve">Quinidine - Quinine - Quinovose
 </t>
@@ -1016,7 +1060,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liste_de_biomol%C3%A9cules</t>
+          <t>Liste_de_biomolécules</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1034,7 +1078,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t xml:space="preserve">Raffinose - Récepteur d'hormone- Rébaudioside A - Récepteur membranaire - Récepteur - Réserpine - Rétinoïde - Rhamninose - Rhamnose - Ribose - Ribosome - Ribulose - Rutinose - Ryanodine
 </t>
@@ -1047,7 +1093,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liste_de_biomol%C3%A9cules</t>
+          <t>Liste_de_biomolécules</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1065,7 +1111,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t xml:space="preserve">Saccharose - Sédoheptulose - Sophorose - Sorbose - Sphingolipide - Sphingomyéline - Sphingosine - Stachyose - Stévioside - Stéride - Stéroïde - Stérol - Strychnine - Subérine - Suc gastrique - Sucre simple - Sucre - Surfactant pulmonaire
 </t>
@@ -1078,7 +1126,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Liste_de_biomol%C3%A9cules</t>
+          <t>Liste_de_biomolécules</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1096,7 +1144,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t xml:space="preserve">Tagatose - Talose - Terpène - Thaumatine - Thionine - Thymidine monophosphate - Thyroxine - Titine (protéine) - Tobramycine - Tréhalose - Tréhalulose - Thréose - Triglycéride - Triterpène - Tubuline -  Turanose
 </t>
@@ -1109,7 +1159,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Liste_de_biomol%C3%A9cules</t>
+          <t>Liste_de_biomolécules</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1127,7 +1177,9 @@
           <t>U</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t xml:space="preserve">Ubiquitine - Uridine monophosphate
 </t>
@@ -1140,7 +1192,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Liste_de_biomol%C3%A9cules</t>
+          <t>Liste_de_biomolécules</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1158,7 +1210,9 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t xml:space="preserve">Verbascose - Vitamine A - Vitamine B - Vitamine B1 - Vitamine B12 - Vitamine B2 - Vitamine B3 - Vitamine B5 - Vitamine B6 - Vitamine B8 - Vitamine B9 - Vitamine C - Vitamine D - Vitamine E - Vitamine K - Vitamine
 </t>
@@ -1171,7 +1225,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Liste_de_biomol%C3%A9cules</t>
+          <t>Liste_de_biomolécules</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1189,7 +1243,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t xml:space="preserve">Xanthine - Xanthophylle - Xylane - Xylitol - Xylose - Xylulose
 </t>
@@ -1202,7 +1258,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Liste_de_biomol%C3%A9cules</t>
+          <t>Liste_de_biomolécules</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1220,7 +1276,9 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t xml:space="preserve">Yohimbine
 </t>
@@ -1233,7 +1291,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Liste_de_biomol%C3%A9cules</t>
+          <t>Liste_de_biomolécules</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1251,7 +1309,9 @@
           <t>Z</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t xml:space="preserve">Zéine
 </t>
@@ -1264,7 +1324,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Liste_de_biomol%C3%A9cules</t>
+          <t>Liste_de_biomolécules</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1282,7 +1342,9 @@
           <t>0-9</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
         <is>
           <t xml:space="preserve">3-hydroxybutanone - 5-HTP
  Portail de la biochimie   Portail de la biologie cellulaire et moléculaire                    </t>
